--- a/dev/Tutorials/3MKT/outputs/3mkt-09.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-09.xlsx
@@ -10625,7 +10625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10691,25 +10691,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>avg_price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rasm</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>sys_lf</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>local_pct_leg_pax</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>local_pct_bookings</t>
         </is>
@@ -10754,18 +10769,27 @@
         <v>393.72</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>326.328371825846</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.1812626625291937</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0.1636029839651855</v>
+      </c>
+      <c r="Q2" t="n">
         <v>90.2574097072176</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>50.33272376308036</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>66.96176654445928</v>
       </c>
     </row>
@@ -10808,18 +10832,27 @@
         <v>393.895</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>325.7552506087662</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.1807295318218692</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0.1631694138868416</v>
+      </c>
+      <c r="Q3" t="n">
         <v>90.2837584106978</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>50.1313801901522</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>66.78334686147186</v>
       </c>
     </row>
@@ -27444,7 +27477,7 @@
         <v>250</v>
       </c>
       <c r="F2" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G2" t="n">
         <v>30767</v>
@@ -27480,7 +27513,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G3" t="n">
         <v>39684</v>
@@ -27524,7 +27557,7 @@
         <v>375</v>
       </c>
       <c r="F4" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G4" t="n">
         <v>53725</v>
@@ -27560,7 +27593,7 @@
         <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G5" t="n">
         <v>64879</v>
@@ -27604,7 +27637,7 @@
         <v>500</v>
       </c>
       <c r="F6" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G6" t="n">
         <v>43650</v>
@@ -27640,7 +27673,7 @@
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G7" t="n">
         <v>61273</v>

--- a/dev/Tutorials/3MKT/outputs/3mkt-09.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-09.xlsx
@@ -10,16 +10,17 @@
     <sheet name="bid_price_history" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="carriers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="carrier_history2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="demand_to_come_summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="demands" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="displacement_history" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="fare_class_mix" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="legbuckets" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="legs" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="pathclasses" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="path_legs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="paths" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="segmentation_by_timeframe" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="cp_segmentation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="demand_to_come_summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="demands" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="displacement_history" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fare_class_mix" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="legbuckets" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="legs" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="pathclasses" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="path_legs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="paths" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="segmentation_by_timeframe" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3760,7 +3761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,6 +3772,381 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>leg_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>flt_no</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>orig</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dest</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gt_sold</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gt_capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>gt_sold_local</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>34699</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15184</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5830410.353964997</v>
+      </c>
+      <c r="J2" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>34796</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15201</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5841383.889200642</v>
+      </c>
+      <c r="J3" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>201</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>34867</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15211</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5829218.262541194</v>
+      </c>
+      <c r="J4" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>202</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>34696</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15066</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5813574.872694409</v>
+      </c>
+      <c r="J5" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>43940</v>
+      </c>
+      <c r="G6" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24425</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13471439.64603349</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>112</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>44053</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24458</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13486866.11079783</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>211</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>43954</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24298</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13412631.73745735</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>212</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>44041</v>
+      </c>
+      <c r="G9" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24411</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13472300.12730403</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>path_id</t>
         </is>
       </c>
@@ -3817,6 +4193,16 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>gt_sold_by_segment_leisure</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue_by_segment_business</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue_by_segment_leisure</t>
         </is>
       </c>
     </row>
@@ -3859,6 +4245,12 @@
       <c r="J2" t="n">
         <v>1</v>
       </c>
+      <c r="K2" t="n">
+        <v>388800</v>
+      </c>
+      <c r="L2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -3897,6 +4289,12 @@
       <c r="J3" t="n">
         <v>47</v>
       </c>
+      <c r="K3" t="n">
+        <v>1193700</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -3935,6 +4333,12 @@
       <c r="J4" t="n">
         <v>265</v>
       </c>
+      <c r="K4" t="n">
+        <v>387600</v>
+      </c>
+      <c r="L4" t="n">
+        <v>53000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -3973,6 +4377,12 @@
       <c r="J5" t="n">
         <v>613</v>
       </c>
+      <c r="K5" t="n">
+        <v>13050</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91950</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -4011,6 +4421,12 @@
       <c r="J6" t="n">
         <v>4746</v>
       </c>
+      <c r="K6" t="n">
+        <v>13375</v>
+      </c>
+      <c r="L6" t="n">
+        <v>593250</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -4049,6 +4465,12 @@
       <c r="J7" t="n">
         <v>2429</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>242900</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4089,6 +4511,12 @@
       <c r="J8" t="n">
         <v>1</v>
       </c>
+      <c r="K8" t="n">
+        <v>372400</v>
+      </c>
+      <c r="L8" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -4127,6 +4555,12 @@
       <c r="J9" t="n">
         <v>47</v>
       </c>
+      <c r="K9" t="n">
+        <v>1201200</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -4165,6 +4599,12 @@
       <c r="J10" t="n">
         <v>257</v>
       </c>
+      <c r="K10" t="n">
+        <v>396000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>51400</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -4203,6 +4643,12 @@
       <c r="J11" t="n">
         <v>571</v>
       </c>
+      <c r="K11" t="n">
+        <v>12600</v>
+      </c>
+      <c r="L11" t="n">
+        <v>85650</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -4241,6 +4687,12 @@
       <c r="J12" t="n">
         <v>4928</v>
       </c>
+      <c r="K12" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L12" t="n">
+        <v>616000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -4279,6 +4731,12 @@
       <c r="J13" t="n">
         <v>2290</v>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>229000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4319,6 +4777,12 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="n">
+        <v>397600</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -4357,6 +4821,12 @@
       <c r="J15" t="n">
         <v>48</v>
       </c>
+      <c r="K15" t="n">
+        <v>1185900</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14400</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -4395,6 +4865,12 @@
       <c r="J16" t="n">
         <v>258</v>
       </c>
+      <c r="K16" t="n">
+        <v>380200</v>
+      </c>
+      <c r="L16" t="n">
+        <v>51600</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -4433,6 +4909,12 @@
       <c r="J17" t="n">
         <v>543</v>
       </c>
+      <c r="K17" t="n">
+        <v>13350</v>
+      </c>
+      <c r="L17" t="n">
+        <v>81450</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -4471,6 +4953,12 @@
       <c r="J18" t="n">
         <v>4928</v>
       </c>
+      <c r="K18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>616000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -4509,6 +4997,12 @@
       <c r="J19" t="n">
         <v>2401</v>
       </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>240100</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -4549,6 +5043,12 @@
       <c r="J20" t="n">
         <v>1</v>
       </c>
+      <c r="K20" t="n">
+        <v>387600</v>
+      </c>
+      <c r="L20" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -4587,6 +5087,12 @@
       <c r="J21" t="n">
         <v>55</v>
       </c>
+      <c r="K21" t="n">
+        <v>1195800</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16500</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -4625,6 +5131,12 @@
       <c r="J22" t="n">
         <v>249</v>
       </c>
+      <c r="K22" t="n">
+        <v>385600</v>
+      </c>
+      <c r="L22" t="n">
+        <v>49800</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -4663,6 +5175,12 @@
       <c r="J23" t="n">
         <v>624</v>
       </c>
+      <c r="K23" t="n">
+        <v>12450</v>
+      </c>
+      <c r="L23" t="n">
+        <v>93600</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -4701,6 +5219,12 @@
       <c r="J24" t="n">
         <v>4680</v>
       </c>
+      <c r="K24" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L24" t="n">
+        <v>585000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -4739,6 +5263,12 @@
       <c r="J25" t="n">
         <v>2391</v>
       </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>239100</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4779,6 +5309,12 @@
       <c r="J26" t="n">
         <v>3</v>
       </c>
+      <c r="K26" t="n">
+        <v>3272000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -4817,6 +5353,12 @@
       <c r="J27" t="n">
         <v>164</v>
       </c>
+      <c r="K27" t="n">
+        <v>1842800</v>
+      </c>
+      <c r="L27" t="n">
+        <v>65600</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -4855,6 +5397,12 @@
       <c r="J28" t="n">
         <v>552</v>
       </c>
+      <c r="K28" t="n">
+        <v>388200</v>
+      </c>
+      <c r="L28" t="n">
+        <v>165600</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -4893,6 +5441,12 @@
       <c r="J29" t="n">
         <v>1315</v>
       </c>
+      <c r="K29" t="n">
+        <v>14175</v>
+      </c>
+      <c r="L29" t="n">
+        <v>295875</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -4931,6 +5485,12 @@
       <c r="J30" t="n">
         <v>8961</v>
       </c>
+      <c r="K30" t="n">
+        <v>15750</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1568175</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -4969,6 +5529,12 @@
       <c r="J31" t="n">
         <v>832</v>
       </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>124800</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5009,6 +5575,12 @@
       <c r="J32" t="n">
         <v>13</v>
       </c>
+      <c r="K32" t="n">
+        <v>3283500</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6500</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -5047,6 +5619,12 @@
       <c r="J33" t="n">
         <v>160</v>
       </c>
+      <c r="K33" t="n">
+        <v>1811200</v>
+      </c>
+      <c r="L33" t="n">
+        <v>64000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -5085,6 +5663,12 @@
       <c r="J34" t="n">
         <v>583</v>
       </c>
+      <c r="K34" t="n">
+        <v>363300</v>
+      </c>
+      <c r="L34" t="n">
+        <v>174900</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -5123,6 +5707,12 @@
       <c r="J35" t="n">
         <v>1354</v>
       </c>
+      <c r="K35" t="n">
+        <v>14625</v>
+      </c>
+      <c r="L35" t="n">
+        <v>304650</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -5161,6 +5751,12 @@
       <c r="J36" t="n">
         <v>9054</v>
       </c>
+      <c r="K36" t="n">
+        <v>17325</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1584450</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -5199,6 +5795,12 @@
       <c r="J37" t="n">
         <v>824</v>
       </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>123600</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5239,6 +5841,12 @@
       <c r="J38" t="n">
         <v>6</v>
       </c>
+      <c r="K38" t="n">
+        <v>3254000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -5277,6 +5885,12 @@
       <c r="J39" t="n">
         <v>164</v>
       </c>
+      <c r="K39" t="n">
+        <v>1814400</v>
+      </c>
+      <c r="L39" t="n">
+        <v>65600</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -5315,6 +5929,12 @@
       <c r="J40" t="n">
         <v>546</v>
       </c>
+      <c r="K40" t="n">
+        <v>375300</v>
+      </c>
+      <c r="L40" t="n">
+        <v>163800</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -5353,6 +5973,12 @@
       <c r="J41" t="n">
         <v>1316</v>
       </c>
+      <c r="K41" t="n">
+        <v>14625</v>
+      </c>
+      <c r="L41" t="n">
+        <v>296100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -5391,6 +6017,12 @@
       <c r="J42" t="n">
         <v>8944</v>
       </c>
+      <c r="K42" t="n">
+        <v>18900</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1565200</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -5429,6 +6061,12 @@
       <c r="J43" t="n">
         <v>854</v>
       </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>128100</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5469,6 +6107,12 @@
       <c r="J44" t="n">
         <v>10</v>
       </c>
+      <c r="K44" t="n">
+        <v>3310000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -5507,6 +6151,12 @@
       <c r="J45" t="n">
         <v>160</v>
       </c>
+      <c r="K45" t="n">
+        <v>1830800</v>
+      </c>
+      <c r="L45" t="n">
+        <v>64000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -5545,6 +6195,12 @@
       <c r="J46" t="n">
         <v>507</v>
       </c>
+      <c r="K46" t="n">
+        <v>378300</v>
+      </c>
+      <c r="L46" t="n">
+        <v>152100</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -5583,6 +6239,12 @@
       <c r="J47" t="n">
         <v>1340</v>
       </c>
+      <c r="K47" t="n">
+        <v>12150</v>
+      </c>
+      <c r="L47" t="n">
+        <v>301500</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -5621,6 +6283,12 @@
       <c r="J48" t="n">
         <v>8911</v>
       </c>
+      <c r="K48" t="n">
+        <v>18025</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1559425</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -5659,6 +6327,12 @@
       <c r="J49" t="n">
         <v>868</v>
       </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>130200</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5699,6 +6373,12 @@
       <c r="J50" t="n">
         <v>9</v>
       </c>
+      <c r="K50" t="n">
+        <v>3315750</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6750</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -5737,6 +6417,12 @@
       <c r="J51" t="n">
         <v>84</v>
       </c>
+      <c r="K51" t="n">
+        <v>1549375</v>
+      </c>
+      <c r="L51" t="n">
+        <v>52500</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -5775,6 +6461,12 @@
       <c r="J52" t="n">
         <v>336</v>
       </c>
+      <c r="K52" t="n">
+        <v>889650</v>
+      </c>
+      <c r="L52" t="n">
+        <v>151200</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -5813,6 +6505,12 @@
       <c r="J53" t="n">
         <v>1119</v>
       </c>
+      <c r="K53" t="n">
+        <v>89050</v>
+      </c>
+      <c r="L53" t="n">
+        <v>363675</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -5851,6 +6549,12 @@
       <c r="J54" t="n">
         <v>7154</v>
       </c>
+      <c r="K54" t="n">
+        <v>82000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1788500</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -5889,6 +6593,12 @@
       <c r="J55" t="n">
         <v>1334</v>
       </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>266800</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5929,6 +6639,12 @@
       <c r="J56" t="n">
         <v>3</v>
       </c>
+      <c r="K56" t="n">
+        <v>3315000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -5967,6 +6683,12 @@
       <c r="J57" t="n">
         <v>85</v>
       </c>
+      <c r="K57" t="n">
+        <v>1576250</v>
+      </c>
+      <c r="L57" t="n">
+        <v>53125</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -6005,6 +6727,12 @@
       <c r="J58" t="n">
         <v>323</v>
       </c>
+      <c r="K58" t="n">
+        <v>907650</v>
+      </c>
+      <c r="L58" t="n">
+        <v>145350</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -6043,6 +6771,12 @@
       <c r="J59" t="n">
         <v>1038</v>
       </c>
+      <c r="K59" t="n">
+        <v>87425</v>
+      </c>
+      <c r="L59" t="n">
+        <v>337350</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -6081,6 +6815,12 @@
       <c r="J60" t="n">
         <v>7295</v>
       </c>
+      <c r="K60" t="n">
+        <v>76000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1823750</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -6119,6 +6859,12 @@
       <c r="J61" t="n">
         <v>1319</v>
       </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>263800</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6159,6 +6905,12 @@
       <c r="J62" t="n">
         <v>3</v>
       </c>
+      <c r="K62" t="n">
+        <v>3216000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -6197,6 +6949,12 @@
       <c r="J63" t="n">
         <v>68</v>
       </c>
+      <c r="K63" t="n">
+        <v>1595625</v>
+      </c>
+      <c r="L63" t="n">
+        <v>42500</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -6235,6 +6993,12 @@
       <c r="J64" t="n">
         <v>380</v>
       </c>
+      <c r="K64" t="n">
+        <v>889650</v>
+      </c>
+      <c r="L64" t="n">
+        <v>171000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
@@ -6273,6 +7037,12 @@
       <c r="J65" t="n">
         <v>1148</v>
       </c>
+      <c r="K65" t="n">
+        <v>87750</v>
+      </c>
+      <c r="L65" t="n">
+        <v>373100</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -6311,6 +7081,12 @@
       <c r="J66" t="n">
         <v>7251</v>
       </c>
+      <c r="K66" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1812750</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -6349,6 +7125,12 @@
       <c r="J67" t="n">
         <v>1398</v>
       </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>279600</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6389,6 +7171,12 @@
       <c r="J68" t="n">
         <v>6</v>
       </c>
+      <c r="K68" t="n">
+        <v>3258000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
@@ -6427,6 +7215,12 @@
       <c r="J69" t="n">
         <v>72</v>
       </c>
+      <c r="K69" t="n">
+        <v>1551250</v>
+      </c>
+      <c r="L69" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
@@ -6465,6 +7259,12 @@
       <c r="J70" t="n">
         <v>338</v>
       </c>
+      <c r="K70" t="n">
+        <v>908550</v>
+      </c>
+      <c r="L70" t="n">
+        <v>152100</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
@@ -6503,6 +7303,12 @@
       <c r="J71" t="n">
         <v>1101</v>
       </c>
+      <c r="K71" t="n">
+        <v>91650</v>
+      </c>
+      <c r="L71" t="n">
+        <v>357825</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
@@ -6541,6 +7347,12 @@
       <c r="J72" t="n">
         <v>7292</v>
       </c>
+      <c r="K72" t="n">
+        <v>76750</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1823000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -6578,6 +7390,12 @@
       </c>
       <c r="J73" t="n">
         <v>1386</v>
+      </c>
+      <c r="K73" t="n">
+        <v>200</v>
+      </c>
+      <c r="L73" t="n">
+        <v>277200</v>
       </c>
     </row>
   </sheetData>
@@ -6599,7 +7417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6806,7 +7624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7415,13 +8233,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10595,25 +11413,275 @@
         <v>841.375</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>XX</t>
+        </is>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7.8575</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7.4625</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="1" t="n"/>
+      <c r="D157" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>17.7775</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11.3225</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="n"/>
+      <c r="D158" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15.545</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="n"/>
+      <c r="D159" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6.3925</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="1" t="n"/>
+      <c r="D160" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7.4425</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
+      <c r="D161" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.2225</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11.735</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
+      <c r="D162" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8.715</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="n"/>
+      <c r="C163" s="1" t="n"/>
+      <c r="D163" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9.445</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="n"/>
+      <c r="C164" s="1" t="n"/>
+      <c r="D164" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="n">
+        <v>7.565</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="n"/>
+      <c r="C165" s="1" t="n"/>
+      <c r="D165" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="n"/>
+      <c r="C166" s="1" t="n"/>
+      <c r="D166" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>2.115</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="n"/>
+      <c r="C167" s="1" t="n"/>
+      <c r="D167" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>2.9225</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="n"/>
+      <c r="C168" s="1" t="n"/>
+      <c r="D168" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>3.8475</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="1" t="n"/>
+      <c r="C169" s="1" t="n"/>
+      <c r="D169" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="1" t="n"/>
+      <c r="C170" s="1" t="n"/>
+      <c r="D170" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="n">
+        <v>2.9025</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="n"/>
+      <c r="C171" s="1" t="n"/>
+      <c r="D171" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>7.1075</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="B80:B155"/>
+    <mergeCell ref="B4:B79"/>
+    <mergeCell ref="C36:C49"/>
+    <mergeCell ref="A4:A171"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C126:C137"/>
+    <mergeCell ref="C96:C111"/>
+    <mergeCell ref="B156:B171"/>
+    <mergeCell ref="C148:C155"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="C112:C125"/>
+    <mergeCell ref="C50:C61"/>
     <mergeCell ref="C72:C79"/>
     <mergeCell ref="C4:C19"/>
     <mergeCell ref="C138:C147"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C156:C171"/>
     <mergeCell ref="C80:C95"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C126:C137"/>
-    <mergeCell ref="B80:B155"/>
-    <mergeCell ref="B4:B79"/>
-    <mergeCell ref="C36:C49"/>
-    <mergeCell ref="C96:C111"/>
-    <mergeCell ref="A4:A155"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="C112:C125"/>
-    <mergeCell ref="C148:C155"/>
-    <mergeCell ref="C50:C61"/>
-    <mergeCell ref="C62:C71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26923,6 +27991,309 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>booking_class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Y0</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23885</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13965250</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22706</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9437950</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12733</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4073850</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6852</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1710075</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43174</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8192075</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9028</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1250900</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Y0</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23749</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13838350</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22654</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9421775</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12615</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4058000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6915</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1735550</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>43040</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8179550</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9299</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1294500</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27378,7 +28749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27492,7 +28863,7 @@
         <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>1848</v>
+        <v>1478</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27528,7 +28899,7 @@
         <v>326</v>
       </c>
       <c r="K3" t="n">
-        <v>8721</v>
+        <v>6985</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27572,7 +28943,7 @@
         <v>2472</v>
       </c>
       <c r="K4" t="n">
-        <v>1389</v>
+        <v>1102</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27608,7 +28979,7 @@
         <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>20593</v>
+        <v>16638</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27652,7 +29023,7 @@
         <v>2995</v>
       </c>
       <c r="K6" t="n">
-        <v>3476</v>
+        <v>2801</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27688,7 +29059,7 @@
         <v>1149</v>
       </c>
       <c r="K7" t="n">
-        <v>24261</v>
+        <v>19582</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27707,7 +29078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28210,7 +29581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28431,7 +29802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29413,379 +30784,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>leg_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>carrier</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>flt_no</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>orig</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>dest</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>gt_sold</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gt_capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gt_sold_local</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gt_revenue</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>34699</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15184</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5830410.353964997</v>
-      </c>
-      <c r="J2" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>34796</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15201</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5841383.889200642</v>
-      </c>
-      <c r="J3" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>201</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>34867</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15211</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5829218.262541194</v>
-      </c>
-      <c r="J4" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>202</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>34696</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>15066</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5813574.872694409</v>
-      </c>
-      <c r="J5" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>111</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>43940</v>
-      </c>
-      <c r="G6" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>24425</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13471439.64603349</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>112</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>44053</v>
-      </c>
-      <c r="G7" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>24458</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13486866.11079783</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>211</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>43954</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24298</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13412631.73745735</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>212</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>44041</v>
-      </c>
-      <c r="G9" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24411</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13472300.12730403</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>